--- a/todo_DB.xlsx
+++ b/todo_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maisy\Desktop\Mini\todo_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D121BD38-CB34-4E32-8DFB-7EE94A3E3ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7191EABF-4448-4BE0-B79C-BFBD28E531C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13548" windowHeight="5712" xr2:uid="{F827835D-4857-4162-907C-737A59D37ECC}"/>
   </bookViews>
@@ -96,11 +96,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 - 삭제 / 1- 기본값 / 2-완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 - 기본값 / 1-중요1 / 2- 중요2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 - 삭제 / 1- 기본값 / 2-수정 / 3-완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +474,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -570,7 +570,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
